--- a/exercises/excercises/ex070.ESP.xlsx
+++ b/exercises/excercises/ex070.ESP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7666A6B2-8367-483E-8272-0EA6DC7F843C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8895DC09-2C1E-4A6D-BFA5-5EA41346C63B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="930" windowWidth="28800" windowHeight="17400" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="110" r:id="rId1"/>
@@ -6273,7 +6273,7 @@
       <definedName name="ESP_encode_string"/>
       <definedName name="ESP_head_m"/>
       <definedName name="ESP_id_by_rate"/>
-      <definedName name="ESP_max_rate_m3day"/>
+      <definedName name="esp_max_rate_m3day"/>
       <definedName name="ESP_name"/>
       <definedName name="ESP_power_W"/>
       <definedName name="getUFVersion"/>
@@ -6877,26 +6877,26 @@
   </sheetPr>
   <dimension ref="A1:AK184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.10</v>
+        <v>7.11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>35</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>37</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>38</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>39</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>42</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>43</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>46</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
         <v>48</v>
       </c>
@@ -7049,23 +7049,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>50</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>51</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
         <v>52</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>53</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>54</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>55</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>56</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>57</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>59</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>62</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
         <v>60</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
         <v>61</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
         <v>64</v>
       </c>
@@ -7219,12 +7219,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:37" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
         <v>68</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:37" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>69</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>65</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B37" s="18" t="s">
         <v>66</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B38" s="18" t="s">
         <v>67</v>
       </c>
@@ -7281,7 +7281,7 @@
       <c r="D38" s="18"/>
       <c r="G38" s="10" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,900;p_ksep_atma:80,000;t_ksep_C:80,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.900;p_ksep_atma:80.000;t_ksep_C:80.000;gas_only:False;</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
@@ -7303,17 +7303,17 @@
       <c r="Y38" s="25"/>
       <c r="Z38" s="25"/>
     </row>
-    <row r="39" spans="1:37" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:37" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C39" s="13">
-        <f>[1]!ESP_max_rate_m3day(Freq_,PumpID_)*1</f>
+        <f>[1]!esp_max_rate_m3day(Freq_,PumpID_)*1</f>
         <v>230</v>
       </c>
       <c r="D39" s="18"/>
     </row>
-    <row r="40" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B40" s="18" t="s">
         <v>16</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:37" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>71</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="D41" s="18"/>
       <c r="G41" s="10" t="str">
         <f>[1]!ESP_encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;t_intake_C:85,00000;t_dis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_h_mes_m:0,00000;ESP_gas_degradation_type:0;c_calibr_head:0,00000;c_calibr_rate:0,00000;c_calibr_power:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
+        <v>ESP_ID:737.00000;HeadNom_m:2000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;t_intake_C:85.00000;t_dis_C:85.00000;KsepGS_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_h_mes_m:0.00000;ESP_gas_degradation_type:0;c_calibr_head:0.00000;c_calibr_rate:0.00000;c_calibr_power:0.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
@@ -7371,7 +7371,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="25"/>
     </row>
-    <row r="42" spans="1:37" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>72</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>73</v>
       </c>
@@ -7393,12 +7393,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>75</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B47" s="18" t="s">
         <v>74</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B48" s="18" t="s">
         <v>76</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" s="18" t="s">
         <v>11</v>
       </c>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="D49" s="18"/>
     </row>
-    <row r="50" spans="1:12" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="G52" s="33" t="s">
         <v>26</v>
       </c>
@@ -7487,7 +7487,7 @@
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
     </row>
-    <row r="53" spans="1:12" ht="25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="20" t="s">
         <v>0</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C54" s="6">
         <v>1</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>19.63524793883451</v>
       </c>
     </row>
-    <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C55" s="6">
         <f>B95+Qmax/20</f>
         <v>11.5</v>
@@ -7598,7 +7598,7 @@
         <v>20.101770826480021</v>
       </c>
     </row>
-    <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C56" s="6">
         <f t="shared" ref="C56:C74" si="4">C55+Qmax/20</f>
         <v>23</v>
@@ -7638,7 +7638,7 @@
         <v>19.888052109725862</v>
       </c>
     </row>
-    <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="6">
         <f t="shared" si="4"/>
         <v>34.5</v>
@@ -7678,7 +7678,7 @@
         <v>20.3849755135154</v>
       </c>
     </row>
-    <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C58" s="6">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -7718,7 +7718,7 @@
         <v>22.102114703471187</v>
       </c>
     </row>
-    <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="6">
         <f t="shared" si="4"/>
         <v>57.5</v>
@@ -7758,7 +7758,7 @@
         <v>24.815318212618067</v>
       </c>
     </row>
-    <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="6">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -7798,7 +7798,7 @@
         <v>28.212675462192436</v>
       </c>
     </row>
-    <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="6">
         <f t="shared" si="4"/>
         <v>80.5</v>
@@ -7838,7 +7838,7 @@
         <v>32.105404323559398</v>
       </c>
     </row>
-    <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="6">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -7878,7 +7878,7 @@
         <v>36.392865979782812</v>
       </c>
     </row>
-    <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C63" s="6">
         <f t="shared" si="4"/>
         <v>103.5</v>
@@ -7918,7 +7918,7 @@
         <v>41.055850151254191</v>
       </c>
     </row>
-    <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="6">
         <f t="shared" si="4"/>
         <v>115</v>
@@ -7958,7 +7958,7 @@
         <v>46.118936251922833</v>
       </c>
     </row>
-    <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="6">
         <f t="shared" si="4"/>
         <v>126.5</v>
@@ -7998,7 +7998,7 @@
         <v>51.677661266006311</v>
       </c>
     </row>
-    <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="6">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -8038,7 +8038,7 @@
         <v>57.959432061843984</v>
       </c>
     </row>
-    <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="6">
         <f t="shared" si="4"/>
         <v>149.5</v>
@@ -8078,7 +8078,7 @@
         <v>65.510471412829901</v>
       </c>
     </row>
-    <row r="68" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C68" s="6">
         <f t="shared" si="4"/>
         <v>161</v>
@@ -8118,7 +8118,7 @@
         <v>76.037946397137489</v>
       </c>
     </row>
-    <row r="69" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C69" s="6">
         <f t="shared" si="4"/>
         <v>172.5</v>
@@ -8158,7 +8158,7 @@
         <v>93.933556515037949</v>
       </c>
     </row>
-    <row r="70" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C70" s="6">
         <f t="shared" si="4"/>
         <v>184</v>
@@ -8198,7 +8198,7 @@
         <v>113.74678653187701</v>
       </c>
     </row>
-    <row r="71" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C71" s="6">
         <f t="shared" si="4"/>
         <v>195.5</v>
@@ -8238,7 +8238,7 @@
         <v>133.40052321462497</v>
       </c>
     </row>
-    <row r="72" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C72" s="6">
         <f t="shared" si="4"/>
         <v>207</v>
@@ -8278,7 +8278,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C73" s="6">
         <f t="shared" si="4"/>
         <v>218.5</v>
@@ -8318,7 +8318,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C74" s="6">
         <f t="shared" si="4"/>
         <v>230</v>
@@ -8358,103 +8358,103 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="M94" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="97" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="98" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="99" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="100" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="101" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="102" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="103" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="104" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="105" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="106" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="107" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="108" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="109" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="110" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="111" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="112" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="113" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="114" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="115" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="116" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="117" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="118" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="97" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="98" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="99" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="100" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="101" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="102" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="103" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="104" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="105" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="106" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="107" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="108" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="109" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="110" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="111" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="112" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="113" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="114" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="115" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="116" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="117" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="118" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K173" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K184" s="7"/>
     </row>
   </sheetData>
